--- a/Reference.xlsx
+++ b/Reference.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smit\Desktop\Learning Git\testing2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -174,13 +174,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,6 +491,11 @@
       <c r="D3">
         <f>B3+C3</f>
         <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -515,24 +520,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -615,11 +620,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -641,10 +646,10 @@
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>100</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -737,13 +742,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -753,13 +758,13 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
